--- a/advt.CMS/Attachment/temp/Template/BankTemplate.xlsx
+++ b/advt.CMS/Attachment/temp/Template/BankTemplate.xlsx
@@ -19,72 +19,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ExamType</t>
-  </si>
-  <si>
-    <t>TopicTitlePicNum</t>
-  </si>
-  <si>
-    <t>RightKey</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>OptionA</t>
-  </si>
-  <si>
-    <t>OptionAPicNum</t>
-  </si>
-  <si>
-    <t>OptionB</t>
-  </si>
-  <si>
-    <t>OptionBPicNum</t>
-  </si>
-  <si>
-    <t>OptionC</t>
-  </si>
-  <si>
-    <t>OptionCPicNum</t>
-  </si>
-  <si>
-    <t>OptionD</t>
-  </si>
-  <si>
-    <t>OptionDPicNum</t>
-  </si>
-  <si>
-    <t>OptionE</t>
-  </si>
-  <si>
-    <t>OptionEPicNum</t>
-  </si>
-  <si>
-    <t>OptionF</t>
-  </si>
-  <si>
-    <t>OptionFPicNum</t>
-  </si>
-  <si>
-    <t>TopicMajor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopicLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopicType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopicTitle</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>考试类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目内容图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项A图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项B图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项C图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项D图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项E图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项F图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#上岗训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规范：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.  L1代表单选
+     L2代表多选
+    L3代表问答</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,8 +155,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -410,80 +440,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="4" max="4" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:21" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/advt.CMS/Attachment/temp/Template/BankTemplate.xlsx
+++ b/advt.CMS/Attachment/temp/Template/BankTemplate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>考试类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,10 @@
     <t>1.  L1代表单选
      L2代表多选
     L3代表问答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试科目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,19 +444,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -460,64 +464,67 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>

--- a/advt.CMS/Attachment/temp/Template/BankTemplate.xlsx
+++ b/advt.CMS/Attachment/temp/Template/BankTemplate.xlsx
@@ -109,13 +109,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.  L1代表单选
-     L2代表多选
-    L3代表问答</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>考试科目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.  0代表单选
+     1代表多选
+    2代表问答</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="2" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>

--- a/advt.CMS/Attachment/temp/Template/BankTemplate.xlsx
+++ b/advt.CMS/Attachment/temp/Template/BankTemplate.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>考试类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,21 +102,224 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#上岗训练</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规范：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>考试科目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.  0代表单选
-     1代表多选
-    2代表问答</t>
+    <t>题库填写规范：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.考试类型：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">①关键岗位技能等级
+②岗位资格证
+③教育训练考试
+④转正考试
+⑤新人训考试
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.考试科目：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+根据不同考试类型下选择不同，如BPE_G1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3.题目专业（仅关键岗位技能等级需填写）：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每个题目对应的专业知识，如C#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4.题目等级：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">有涉及技能等级的考试类型，请填写题目对应的技能等级，如BPE_G1、Web_G1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.题目类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+单选题请填写0
+多选题请填写1
+问答题请填写2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.题目内容图片：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>唯一的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">名字命名图片：
+题目内容图片：WebG101内容
+选项A图片：WebG101A
+选项B图片：WebG101B
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.答案解析：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+请针对正确答案进行思路解析</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +327,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +337,49 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -159,10 +406,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,97 +716,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="41.875" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="9" style="9"/>
+    <col min="19" max="19" width="13.125" customWidth="1"/>
+    <col min="20" max="20" width="10.75" customWidth="1"/>
+    <col min="21" max="21" width="11.625" customWidth="1"/>
+    <col min="22" max="22" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:22" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="342" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B2" s="3"/>
+      <c r="J2" s="7"/>
     </row>
-    <row r="2" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="H3" s="2"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/advt.CMS/Attachment/temp/Template/BankTemplate.xlsx
+++ b/advt.CMS/Attachment/temp/Template/BankTemplate.xlsx
@@ -22,14 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
-    <t>考试类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目专业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>题目等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,10 +91,6 @@
   </si>
   <si>
     <t>选项F图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考试科目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -320,6 +308,18 @@
       <t xml:space="preserve">
 请针对正确答案进行思路解析</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试类型(必填)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试科目（选填）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目专业（选填）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,7 +719,7 @@
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -741,75 +741,75 @@
   <sheetData>
     <row r="1" spans="1:22" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="342" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3"/>
       <c r="J2" s="7"/>
